--- a/ESTOQUE VG 12-02-2025.xlsx
+++ b/ESTOQUE VG 12-02-2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos Eduardo\Documents\App_Consulta_Veiculos\xlsx\lojas\MTZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos Eduardo\Documents\GitHub\App_Consulta_Veiculos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B693BB68-8344-4359-8331-41484C6282C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ADD44E-FAB3-47E1-9CCD-9A22D421418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" xr2:uid="{9D410868-8077-4D3C-BBE6-98234956D0C2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>COD. CRM</t>
   </si>
@@ -65,9 +65,6 @@
     <t>93ZC635BZR8207077</t>
   </si>
   <si>
-    <t xml:space="preserve"> 24/24</t>
-  </si>
-  <si>
     <t xml:space="preserve"> BRANCO IVECO</t>
   </si>
   <si>
@@ -78,9 +75,6 @@
   </si>
   <si>
     <t>93ZC653DZR8205172</t>
-  </si>
-  <si>
-    <t>23/24</t>
   </si>
   <si>
     <t>GOODYEAR</t>
@@ -456,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BADD69D-DD57-4F45-8593-FE7A4F2B5093}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,12 +461,12 @@
     <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="115.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,16 +480,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>24901</v>
       </c>
@@ -505,39 +502,45 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>2024</v>
+      </c>
+      <c r="E2">
+        <v>2024</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
+      <c r="H2">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>24404</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>2024</v>
+      </c>
+      <c r="E3">
+        <v>2024</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
+      <c r="H3">
         <v>289</v>
       </c>
     </row>

--- a/ESTOQUE VG 12-02-2025.xlsx
+++ b/ESTOQUE VG 12-02-2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos Eduardo\Documents\GitHub\App_Consulta_Veiculos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos Eduardo\Documents\GitHub\appiveco\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ADD44E-FAB3-47E1-9CCD-9A22D421418A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A248F20-B65C-42E9-A6FE-6E2794E4C03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2730" windowWidth="29040" windowHeight="15840" xr2:uid="{9D410868-8077-4D3C-BBE6-98234956D0C2}"/>
   </bookViews>
@@ -113,9 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,7 +454,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,6 +462,7 @@
     <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="115.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -476,10 +478,10 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
@@ -502,10 +504,10 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>2024</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>2024</v>
       </c>
       <c r="F2" t="s">
@@ -528,10 +530,10 @@
       <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>2024</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>2024</v>
       </c>
       <c r="F3" t="s">
